--- a/journey_begins/Bus/bus_list.xlsx
+++ b/journey_begins/Bus/bus_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sece_Hackathon\journey_begins\Home_Page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sece_Hackathon\journey_begins\Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698F7769-16BE-4CB9-8AD9-77332F421E08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715F86AA-D4E9-4CDF-AEC5-CB6969BD0D16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A1284A6-2B64-4B9E-8485-1377850CB583}"/>
+    <workbookView xWindow="8436" yWindow="2088" windowWidth="14592" windowHeight="8904" xr2:uid="{7A1284A6-2B64-4B9E-8485-1377850CB583}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="77">
   <si>
     <t>To</t>
   </si>
@@ -116,9 +116,6 @@
     <t xml:space="preserve">Chennai </t>
   </si>
   <si>
-    <t>Selam</t>
-  </si>
-  <si>
     <t>Lion</t>
   </si>
   <si>
@@ -192,13 +189,85 @@
   </si>
   <si>
     <t>Froms</t>
+  </si>
+  <si>
+    <t>Starting point</t>
+  </si>
+  <si>
+    <t>End point</t>
+  </si>
+  <si>
+    <t>Central Bus Stand</t>
+  </si>
+  <si>
+    <t>Tambaram</t>
+  </si>
+  <si>
+    <t>Guindy</t>
+  </si>
+  <si>
+    <t>Annai Maria</t>
+  </si>
+  <si>
+    <t>Bus stand velankanni</t>
+  </si>
+  <si>
+    <t>RMT office</t>
+  </si>
+  <si>
+    <t>Mannarpuram</t>
+  </si>
+  <si>
+    <t>Arumpakkam</t>
+  </si>
+  <si>
+    <t>Salem new bus stand</t>
+  </si>
+  <si>
+    <t>Kondaalampatti</t>
+  </si>
+  <si>
+    <t>New bus stand</t>
+  </si>
+  <si>
+    <t>Kumbakonam Bus stand</t>
+  </si>
+  <si>
+    <t>Rathimeena office</t>
+  </si>
+  <si>
+    <t>Maatuthaavani</t>
+  </si>
+  <si>
+    <t>Tenkasi Bus stand</t>
+  </si>
+  <si>
+    <t>Gandhipuram</t>
+  </si>
+  <si>
+    <t>Hosur bus stand</t>
+  </si>
+  <si>
+    <t>singanallur</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Bus type</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>Nc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +278,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF7E7E8C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,9 +310,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +631,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,11 +640,13 @@
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="6" width="36.77734375" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -578,9 +657,15 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -600,9 +685,15 @@
       <c r="D2" s="1">
         <v>200</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -622,9 +713,15 @@
       <c r="D3" s="1">
         <v>300</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -644,9 +741,15 @@
       <c r="D4" s="1">
         <v>500</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -666,9 +769,15 @@
       <c r="D5" s="1">
         <v>450</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -688,9 +797,15 @@
       <c r="D6" s="1">
         <v>350</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -710,9 +825,15 @@
       <c r="D7" s="1">
         <v>300</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -732,9 +853,15 @@
       <c r="D8" s="1">
         <v>200</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -746,7 +873,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -754,9 +881,15 @@
       <c r="D9" s="1">
         <v>500</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -776,9 +909,15 @@
       <c r="D10" s="1">
         <v>600</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -790,7 +929,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -798,9 +937,15 @@
       <c r="D11" s="1">
         <v>700</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -820,9 +965,15 @@
       <c r="D12" s="1">
         <v>450</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -842,9 +993,15 @@
       <c r="D13" s="1">
         <v>550</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -864,9 +1021,15 @@
       <c r="D14" s="1">
         <v>450</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -878,7 +1041,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
@@ -886,9 +1049,15 @@
       <c r="D15" s="1">
         <v>350</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -903,14 +1072,20 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>400</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -922,7 +1097,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -930,9 +1105,15 @@
       <c r="D17" s="1">
         <v>600</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -952,9 +1133,15 @@
       <c r="D18" s="1">
         <v>550</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -966,7 +1153,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>22</v>
@@ -974,9 +1161,15 @@
       <c r="D19" s="1">
         <v>750</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -996,9 +1189,15 @@
       <c r="D20" s="1">
         <v>800</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1007,7 +1206,7 @@
     </row>
     <row r="21" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
@@ -1018,9 +1217,15 @@
       <c r="D21" s="1">
         <v>650</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1040,48 +1245,84 @@
       <c r="D22" s="1">
         <v>450</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
         <v>400</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1">
         <v>300</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1">
         <v>200</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
@@ -1091,231 +1332,357 @@
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1">
         <v>400</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1">
         <v>500</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1">
         <v>600</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1">
         <v>700</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1">
         <v>800</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1">
         <v>350</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1">
         <v>650</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1">
         <v>689</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1">
         <v>351</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1">
         <v>325</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1">
         <v>650</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1">
         <v>520</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D39" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1323,6 +1690,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>